--- a/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>115,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 13,69</t>
+          <t>-0,64; 25,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 9,98</t>
+          <t>-9,27; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 17,83</t>
+          <t>-14,77; 15,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 8,29</t>
+          <t>-12,86; 10,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 79,81</t>
+          <t>-19,77; 582,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 68,7</t>
+          <t>-52,21; 169,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 183,61</t>
+          <t>-54,19; 134,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 109,76</t>
+          <t>-65,51; 177,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>115,41%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>-19,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 25,41</t>
+          <t>-14,7; 13,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,3</t>
+          <t>-21,73; 9,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 15,01</t>
+          <t>-12,07; 17,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,86</t>
+          <t>-9,29; 8,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 582,92</t>
+          <t>-48,68; 79,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 169,85</t>
+          <t>-62,84; 68,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 134,74</t>
+          <t>-52,37; 183,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,51; 177,9</t>
+          <t>-62,02; 109,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-64,87%</t>
+          <t>-80,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>108,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-43,94%</t>
+          <t>-47,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -0,34</t>
+          <t>-21,84; 0,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 5,93</t>
+          <t>-3,21; 8,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 3,99</t>
+          <t>-17,27; 4,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-93,11; 23,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 299,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>115,41%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>-53,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-35,49%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 25,41</t>
+          <t>-6,19; 17,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,3</t>
+          <t>-7,67; 10,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 15,01</t>
+          <t>-16,61; 2,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,86</t>
+          <t>-15,57; 6,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 582,92</t>
+          <t>-46,17; 309,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 169,85</t>
+          <t>-69,39; 234,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 134,74</t>
+          <t>-100,0; 107,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,51; 177,9</t>
+          <t>-83,75; 127,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>-34,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>32,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 13,69</t>
+          <t>-14,56; 24,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 9,98</t>
+          <t>-30,16; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 17,83</t>
+          <t>-11,29; 23,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 8,29</t>
+          <t>-10,37; 16,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 79,81</t>
+          <t>-54,9; 185,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 68,7</t>
+          <t>-75,84; 65,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 183,61</t>
+          <t>-46,6; 210,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 109,76</t>
+          <t>-63,34; 346,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-10,9%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 7,03</t>
+          <t>-19,27; 14,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,91</t>
+          <t>-21,76; 15,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 6,46</t>
+          <t>-15,05; 24,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,14</t>
+          <t>-12,33; 9,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 55,85</t>
+          <t>-62,15; 104,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 62,87</t>
+          <t>-66,08; 119,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 55,84</t>
+          <t>-58,31; 268,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 69,74</t>
+          <t>-68,99; 159,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,94%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 6,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 5,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 6,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 5,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,1; 44,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-48,0; 51,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-43,05; 57,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-48,4; 81,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 0,11</t>
+          <t>-22,21; 0,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,48</t>
+          <t>-3,23; 8,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 4,67</t>
+          <t>-16,54; 5,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 17,03</t>
+          <t>-6,51; 17,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 10,48</t>
+          <t>-7,35; 9,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 2,98</t>
+          <t>-17,57; 3,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 6,49</t>
+          <t>-16,04; 6,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 309,5</t>
+          <t>-44,83; 312,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 234,46</t>
+          <t>-69,31; 210,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,17</t>
+          <t>-91,18; 90,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,75; 127,17</t>
+          <t>-87,89; 137,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 24,07</t>
+          <t>-15,75; 23,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 7,68</t>
+          <t>-32,04; 6,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 23,04</t>
+          <t>-10,22; 21,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 16,62</t>
+          <t>-10,82; 16,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 185,99</t>
+          <t>-54,55; 250,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-75,84; 65,66</t>
+          <t>-79,98; 39,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 210,01</t>
+          <t>-39,22; 210,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 346,44</t>
+          <t>-64,01; 330,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 14,31</t>
+          <t>-17,91; 14,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 15,75</t>
+          <t>-20,09; 19,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 24,79</t>
+          <t>-18,14; 24,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 9,47</t>
+          <t>-12,76; 8,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 104,59</t>
+          <t>-64,0; 94,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 119,93</t>
+          <t>-60,49; 171,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 268,89</t>
+          <t>-65,46; 303,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 159,52</t>
+          <t>-72,22; 135,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,0</t>
+          <t>-7,84; 6,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,14</t>
+          <t>-7,11; 5,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,47</t>
+          <t>-8,49; 6,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,81</t>
+          <t>-5,97; 5,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 44,54</t>
+          <t>-40,72; 53,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 51,23</t>
+          <t>-43,37; 64,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 57,97</t>
+          <t>-47,78; 64,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 81,38</t>
+          <t>-45,98; 79,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 0,02</t>
+          <t>-22,07; 0,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,92</t>
+          <t>-3,28; 8,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 5,47</t>
+          <t>-17,04; 4,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,49%</t>
+          <t>-39,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 17,15</t>
+          <t>-6,55; 16,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 9,91</t>
+          <t>-7,77; 9,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 3,93</t>
+          <t>-17,08; 4,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 6,32</t>
+          <t>-17,86; 4,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 312,85</t>
+          <t>-48,58; 281,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,31; 210,15</t>
+          <t>-70,32; 228,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-91,18; 90,32</t>
+          <t>-93,36; 109,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,89; 137,49</t>
+          <t>-85,93; 96,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>38,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 23,83</t>
+          <t>-16,2; 24,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 6,53</t>
+          <t>-29,2; 7,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 21,7</t>
+          <t>-10,69; 21,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 16,99</t>
+          <t>-7,64; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 250,44</t>
+          <t>-55,33; 213,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 39,59</t>
+          <t>-77,55; 49,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 210,33</t>
+          <t>-44,95; 183,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 330,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>-34,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 14,69</t>
+          <t>-17,79; 14,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 19,51</t>
+          <t>-20,86; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 24,95</t>
+          <t>-18,24; 24,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 8,62</t>
+          <t>-16,89; 6,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 94,29</t>
+          <t>-62,22; 89,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 171,05</t>
+          <t>-62,96; 148,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 303,56</t>
+          <t>-66,2; 258,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 135,13</t>
+          <t>-87,91; 81,93</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-17,44%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,79</t>
+          <t>-7,67; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 5,83</t>
+          <t>-6,53; 5,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 6,78</t>
+          <t>-8,12; 6,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 5,74</t>
+          <t>-8,9; 3,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 53,89</t>
+          <t>-37,86; 55,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 64,85</t>
+          <t>-42,57; 62,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 64,15</t>
+          <t>-46,22; 55,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 79,48</t>
+          <t>-64,02; 50,59</t>
         </is>
       </c>
     </row>
